--- a/Storage/main.xlsx
+++ b/Storage/main.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,11 +502,49 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Dr Riaz Khan</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>riaz.khan.ruet@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Machine Learning, Deep Learning</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>sites\google.com\riaz-mte-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dr Riaz Khan</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>riaz.khan.ruet@gmail.com</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Machine Learning, Deep Learning</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>sites\google.com\riaz-mte-16 f</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Storage/main.xlsx
+++ b/Storage/main.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,6 +546,12 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Storage/main.xlsx
+++ b/Storage/main.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,11 +546,645 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Augusta University</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Abdullah Al-Mamun</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>aalmamun@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Blockchain</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://aalmamuncse.github.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Paul Attie</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>pattie@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Software engineering</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=PATTIE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Clement Aubert</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>caubert@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Computational Logic</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>http://spots.augusta.edu/caubert/</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Yuyan Bao</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>yubao@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Software Security</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://yuyanbao.github.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Waylon Brunette</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>wburnette@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Sensor Systems</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=KBUSCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Gokila Dorai</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>gdorai@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Internet of Things and Machine Learning</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://dfairlab.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Michael Dowell</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mdowell@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=mdowell</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Harley Eades</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>heades@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Programming Languages</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://metatheorem.org/</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Onyeka Ezenwoye</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>oezenwoye@augusta.edu</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=oezenwoye</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Shiwei Fang</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>shfang@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Embedded Intelligence and IoT</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://shiwei-fang.github.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Jeronimo Grandi</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>jgrandi@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Virtual Reality and Augmented Reality</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=JGRANDI</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Mohamed Ibrahem</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MIBRAHEM@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://nam02.safelinks.protection.outlook.com/?url=https%3A%2F%2Fwww.augusta.edu%2Ffaculty%2Fdirectory%2Fview.php%3Fid%3DMIBRAHEM&amp;data=05%7C01%7CCEAKER%40augusta.edu%7C687f2b2e037d4447a5a408dbc8f41d98%7C8783ac6bd05b4292b483e65f1fdfee91%7C0%7C0%7C638324723010924228%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=B7YhYik86u%2FWV6zuDPBnFjvVmK9qH82paTNeh2tUwms%3D&amp;reserved=0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dariusz Kowalski</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>dkowalski@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Distributed Computing</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=DKOWALSKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Piotr Krysta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>pkrysta@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Combinatorial Optimization</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://sites.google.com/view/piotrkrysta</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hoda Maleki</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>hmaleki@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Cybersecurity</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=HMALEKI</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jason Orlosky</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>jorlosky@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Augmented Reality and AI</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.jeoresearch.com/ccslab</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Nisha Panwar</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>npanwar@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Security and Privacy</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://sites.google.com/view/panwar/about</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Dr. Meikang Qiu</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mqiu@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Machine Learning and Security</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?user=smMVdtwAAAAJ&amp;hl=en</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Reza Rahaeimehr</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rrahaeimehr@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Reza Rahaeimehr</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rrahaeimehr@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Cyber Security</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=RRAHAEIMEHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Peter Robinson</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>sesong@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://sites.google.com/view/sejunsongswebpage/home?authuser=0</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Edward Tremel</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>etremel@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fault Tolerance and IoT</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://edwardtremel.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Gursimran Walia</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>gwalia@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Software Security and Machine Learning</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>http://www.gursimransinghwalia.com/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Zi Wang</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>zwang1@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cyber Security and Human Computer Interaction</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://ziwang-zw.github.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Weiming Xiang</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>wxiang@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Control Theory</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://xiangweiming.github.io/index.html</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Shiwei Zeng</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>szeng@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Software Security</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=SZENG</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Wei Zhang</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>wzhang2@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Machine Learning</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?user=lQQCQSUAAAAJ&amp;hl=en</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Shungeng Zhang</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>szhang2@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Cloud Computing</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://scholar.google.com/citations?hl=en&amp;view_op=list_works&amp;gmla=AJsN-F6OxaAxvq_IrwQpl3a3hxEwt1QMNNYfsAM-ZPPG3EPRlgOxwbSUEbVMn9LFHYw8k43tB_rzhXihbi9SjFuVcg33ROJC83-PzwFtXTC6zWcQq4ZbY9s&amp;user=ovmcuwcAAAAJ</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Jieqiong Zhao</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>jiezhao@augusta.edu</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Artificial Intelligence</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.augusta.edu/faculty/directory/view.php?id=JIEZHAO</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
